--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\EPFL\MA2\ML_Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thami\OneDrive\Dokumente\EPFL\Master\3_Semester\ML\ML_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8C1050-C5E9-4FA3-A9C1-03973EE19EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEF1329-427A-4AC1-8BF9-1806B1F10B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="353" yWindow="1230" windowWidth="21585" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12945" yWindow="2025" windowWidth="17250" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -366,17 +366,17 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -393,27 +393,36 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D3">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D5">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -430,22 +439,31 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D9">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D10">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D11">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
